--- a/xlsx/阿尔巴尼亚武装力量_intext.xlsx
+++ b/xlsx/阿尔巴尼亚武装力量_intext.xlsx
@@ -29,7 +29,7 @@
     <t>阿尔巴尼亚空军</t>
   </si>
   <si>
-    <t>政策_政策_美國_阿尔巴尼亚武装力量</t>
+    <t>政策_政策_美国_阿尔巴尼亚武装力量</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E6%8B%89%E9%82%A3</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%B7%B4%E5%B0%BC%E4%BA%9E%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>阿爾巴尼亞總統</t>
+    <t>阿尔巴尼亚总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E5%B0%94%C2%B7%E6%A2%85%E5%A1%94</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E8%AC%80%E9%95%B7</t>
   </si>
   <si>
-    <t>參謀長</t>
+    <t>参谋长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E5%B0%BC%E4%BA%9E%E8%88%87%E8%B5%AB%E5%A1%9E%E5%93%A5%E7%B6%AD%E7%B4%8D</t>
   </si>
   <si>
-    <t>波士尼亞與赫塞哥維納</t>
+    <t>波士尼亚与赫塞哥维纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8D%E5%BE%97</t>
@@ -191,55 +191,55 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>軍事</t>
+    <t>军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國會員國列表</t>
+    <t>联合国会员国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%B7%B4%E5%B0%BC%E4%BA%9E%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>阿爾巴尼亞軍事</t>
+    <t>阿尔巴尼亚军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>奥地利軍事</t>
+    <t>奥地利军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>比利時軍事</t>
+    <t>比利时军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>保加利亞軍事</t>
+    <t>保加利亚军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>克羅埃西亞軍事</t>
+    <t>克罗埃西亚军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>塞浦路斯軍事</t>
+    <t>塞浦路斯军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6%E5%86%9B%E4%BA%8B</t>
@@ -251,19 +251,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>芬蘭軍事</t>
+    <t>芬兰军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>法國軍事</t>
+    <t>法国军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>德國軍事</t>
+    <t>德国军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E5%86%9B%E4%BA%8B</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>愛爾蘭軍事</t>
+    <t>爱尔兰军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E5%86%9B%E4%BA%8B</t>
@@ -293,13 +293,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>盧森堡軍事</t>
+    <t>卢森堡军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>荷蘭軍事</t>
+    <t>荷兰军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81%E5%86%9B%E4%BA%8B</t>
@@ -311,13 +311,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>波蘭軍事</t>
+    <t>波兰军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>葡萄牙軍事</t>
+    <t>葡萄牙军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%E5%86%9B%E4%BA%8B</t>
@@ -329,13 +329,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>塞爾維亞軍事</t>
+    <t>塞尔维亚军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>西班牙軍事</t>
+    <t>西班牙军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E5%86%9B%E4%BA%8B</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>瑞士軍事</t>
+    <t>瑞士军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6%E5%86%9B%E4%BA%8B</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>英國軍事</t>
+    <t>英国军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E9%99%90%E6%89%BF%E8%AE%A4%E5%9B%BD%E5%AE%B6%E5%88%97%E8%A1%A8</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>主權</t>
+    <t>主权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%9B%9F%E5%86%9B%E4%BA%8B</t>
